--- a/Latest Updates/privacy_notice_data.xlsx
+++ b/Latest Updates/privacy_notice_data.xlsx
@@ -1,37 +1,188 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishanipatil/Documents/GitHub/My-personal-Projects/Privacy-Policy-data-web-scraping/Latest Updates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F1444D6-74A3-D54C-ADF0-25E1C264A546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="42">
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>ParentID</t>
+  </si>
+  <si>
+    <t>StateID</t>
+  </si>
+  <si>
+    <t>Depth</t>
+  </si>
+  <si>
+    <t>Timestamp</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>Text of Notice</t>
+  </si>
+  <si>
+    <t>All Buttons</t>
+  </si>
+  <si>
+    <t>Has Reject Option</t>
+  </si>
+  <si>
+    <t>Has Accept All</t>
+  </si>
+  <si>
+    <t>Has Customize</t>
+  </si>
+  <si>
+    <t>Choice Made</t>
+  </si>
+  <si>
+    <t>Is Policy Page</t>
+  </si>
+  <si>
+    <t>Link 1</t>
+  </si>
+  <si>
+    <t>Link 1 Detail</t>
+  </si>
+  <si>
+    <t>Link 2</t>
+  </si>
+  <si>
+    <t>Link 2 Detail</t>
+  </si>
+  <si>
+    <t>Link 3</t>
+  </si>
+  <si>
+    <t>Link 3 Detail</t>
+  </si>
+  <si>
+    <t>Link 4</t>
+  </si>
+  <si>
+    <t>Link 4 Detail</t>
+  </si>
+  <si>
+    <t>Link 5</t>
+  </si>
+  <si>
+    <t>Link 5 Detail</t>
+  </si>
+  <si>
+    <t>Action Type</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com</t>
+  </si>
+  <si>
+    <t>f15b40f7</t>
+  </si>
+  <si>
+    <t>2025-07-12T17:37:41.311361</t>
+  </si>
+  <si>
+    <t>screenshots/www_dropbox_com_initial_20250712_173701.png</t>
+  </si>
+  <si>
+    <t>We use cookies to provide, improve, protect and promote our services. Visit our Privacy Policy and Privacy Policy FAQs to learn more. You can manage your personal preferences, including your ‘Do not sell or share my personal data to third parties’ setting using the “Customize cookies” button below.
+Customize cookies
+Decline
+Accept All</t>
+  </si>
+  <si>
+    <t>Customize cookies; Decline; Accept All</t>
+  </si>
+  <si>
+    <t>Privacy Policy</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/privacy</t>
+  </si>
+  <si>
+    <t>Privacy Policy FAQs</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/help/security/privacy-policy-faq</t>
+  </si>
+  <si>
+    <t>db765877</t>
+  </si>
+  <si>
+    <t>2025-07-12T17:50:50.090309</t>
+  </si>
+  <si>
+    <t>screenshots/www_dropbox_com_after_button_1_20250712_175050.png</t>
+  </si>
+  <si>
+    <t>Update Cookie Preferences
+Dropbox uses different categories of cookies to provide, protect, improve, and promote our website and services. Information on these categories and their purposes are described below. For more information please see our Privacy Policy and Cookie FAQ page.
+Do not sell or share my information
+Cookie Preferences
+Strictly Necessary
+General Marketing and Advertising
+Analytics
+Performance and Functionality
+Social Media Advertising
+Strictly necessary only
+Save preferences</t>
+  </si>
+  <si>
+    <t>Strictly necessary only; Save preferences</t>
+  </si>
+  <si>
+    <t>Strictly necessary only</t>
+  </si>
+  <si>
+    <t>Cookie FAQ page</t>
+  </si>
+  <si>
+    <t>https://www.dropbox.com/cookie-policy</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +197,46 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,208 +524,216 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:X3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="47.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Website</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>ParentID</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>StateID</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Snapshot</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Text of Notice</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Choice Provided</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>ChoiceMade</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>In Iframe</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Link 1</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Link 1 Detail</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>Link 2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Link 2 Detail</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Link 3</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Link 3 Detail</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>Link 4</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Link 4 Detail</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Link 5</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Link 5 Detail</t>
-        </is>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://export.ebay.com/in/</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>e85db165</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>screenshots/export_ebay_com_initial_20250711_151256.png</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>By clicking "Accept all", you agree to the use of cookies and other technologies to process your personal data. We will also allow third-party companies listedhere, who we partner with, to store cookies on your device and use similar technologies to collect and use your personal data (e.g., IP address) for advertising personalisation, measurement and analytics, on and off our sites. You may decline consent by clicking "Decline all" or make granular choices by clicking "Customise my choices." You may change your choices at any timehere
-Decline all
-Accept All
-Customise my choices</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Decline all</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="b">
+    <row r="2" spans="1:24" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" t="b">
+        <v>1</v>
+      </c>
+      <c r="K2" t="b">
+        <v>1</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>33</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://export.ebay.com/in/</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>e85db165</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>6f07e3a0</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>screenshots/export_ebay_com_after_Customise_my_choices_20250711_151312.png</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>By clicking "Accept all", you agree to the use of cookies and other technologies to process your personal data. We will also allow third-party companies listedhere, who we partner with, to store cookies on your device and use similar technologies to collect and use your personal data (e.g., IP address) for advertising personalisation, measurement and analytics, on and off our sites. You may decline consent by clicking "Decline all" or make granular choices by clicking "Customise my choices." You may change your choices at any timehere
-Decline all
-Accept All
-Customise my choices</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Decline all</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Customise my choices</t>
-        </is>
-      </c>
-      <c r="H3" t="b">
+    <row r="3" spans="1:24" ht="176" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="b">
         <v>0</v>
       </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
+      <c r="J3" t="b">
+        <v>0</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O3" t="s">
+        <v>31</v>
+      </c>
+      <c r="P3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
